--- a/data/trans_dic/iP30A2_2023_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/iP30A2_2023_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP30A2_2023_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +492,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,88 +503,34 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+          <t>Niña</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Niño</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,20 +542,11 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>65,95%</t>
         </is>
       </c>
     </row>
@@ -724,69 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>43,11; 78,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>56,23; 77,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>0; 77,15</t>
+          <t>54,6; 74,94</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>63,64%</t>
         </is>
       </c>
     </row>
@@ -864,69 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,46</t>
+          <t>48,49; 65,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>62,11; 70,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,28</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,4</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,42</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,13</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,74</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,72</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,02</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>0; 1,25</t>
+          <t>57,44; 67,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>64,81%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>58,49; 72,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>57,67; 70,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,31</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,29</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,3</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
+          <t>60,36; 69,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
+          <t>64,1%</t>
         </is>
       </c>
     </row>
@@ -1144,223 +729,34 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>52,67; 65,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>62,63; 69,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,75</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,83</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,39</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,4</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,41</t>
+          <t>59,57; 66,78</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
